--- a/xlsx/Template talk-美国行政区划_intext.xlsx
+++ b/xlsx/Template talk-美国行政区划_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="272">
   <si>
     <t>Template talk-美国行政区划</t>
   </si>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A6%AC%E5%88%A9%E5%AE%89%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>北馬利安納群島</t>
+    <t>北马利安纳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E7%B1%B3%E6%8B%89%E7%8E%AF%E7%A4%81</t>
@@ -479,7 +479,7 @@
     <t>http://en.wikipedia.org/wiki/List_of_regions_of_the_United_States</t>
   </si>
   <si>
-    <t>regions的劃分</t>
+    <t>regions的划分</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
@@ -527,117 +527,63 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>阿拉巴馬州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E8%8F%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>特拉華州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>佛羅里達州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8D%B7%E5%B7%9E</t>
   </si>
   <si>
-    <t>愛德荷州</t>
+    <t>爱德荷州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E6%98%93%E5%B7%9E</t>
   </si>
   <si>
-    <t>伊利諾易州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E8%8D%B7%E8%8F%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>愛荷華州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E5%9B%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>緬因州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E8%98%AD%E5%B7%9E</t>
   </si>
   <si>
-    <t>馬里蘭州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>內華達州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E5%A4%8F%E5%B7%9E</t>
   </si>
   <si>
@@ -647,171 +593,90 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%BE%A4%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
-    <t>新澤西州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E</t>
   </si>
   <si>
-    <t>紐約州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>北卡羅萊那州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%81%94%E7%A7%91%E4%BB%96%E5%B7%9E</t>
   </si>
   <si>
-    <t>北達科他州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%B2%A1%E5%B7%9E</t>
   </si>
   <si>
-    <t>俄勒岡州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E8%A5%BF%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>賓西法尼亞州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BE%85%E8%90%8A%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>南卡羅萊那州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%81%94%E7%A7%91%E4%BB%96%E5%B7%9E</t>
   </si>
   <si>
-    <t>南達科他州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
-    <t>田納西州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>德克薩斯州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E5%B7%9E</t>
   </si>
   <si>
-    <t>猶他州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>維吉尼亞州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E</t>
   </si>
   <si>
-    <t>華盛頓州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BD%9B%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西佛吉尼亞州</t>
+    <t>西佛吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%87%B7%E4%BF%84%E6%98%8E%E5%B7%9E</t>
   </si>
   <si>
-    <t>懷俄明州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
-    <t>華盛頓特區</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%BC%97%E6%B2%99%E5%B3%B6</t>
   </si>
   <si>
-    <t>納弗沙島</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E7%B1%B3%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>巴爾米拉環礁</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E4%BA%AC%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維京島</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/User:Tomchiukc</t>
   </si>
   <si>
@@ -941,7 +806,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%88%BE%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕爾邁拉環礁</t>
+    <t>帕尔迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%9E%E7%BB%B4%E5%B0%94%E4%BA%AC%E7%BE%A4%E5%B2%9B</t>
@@ -3772,7 +3637,7 @@
         <v>169</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3798,10 +3663,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>104</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3827,10 +3692,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>58</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3856,10 +3721,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3885,10 +3750,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3914,10 +3779,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>72</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3943,10 +3808,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3972,10 +3837,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4001,10 +3866,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4030,10 +3895,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4059,10 +3924,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>42</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4088,10 +3953,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4117,10 +3982,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4146,10 +4011,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>74</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4175,10 +4040,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>82</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4204,10 +4069,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4233,10 +4098,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="F101" t="s">
-        <v>202</v>
+        <v>44</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4262,10 +4127,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4291,10 +4156,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>56</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4320,10 +4185,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="F104" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4349,10 +4214,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="F105" t="s">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4378,10 +4243,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="F106" t="s">
-        <v>212</v>
+        <v>66</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4407,10 +4272,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="F107" t="s">
-        <v>214</v>
+        <v>96</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4436,10 +4301,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="F108" t="s">
-        <v>216</v>
+        <v>32</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4465,10 +4330,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="F109" t="s">
-        <v>218</v>
+        <v>162</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4494,10 +4359,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="F110" t="s">
-        <v>220</v>
+        <v>18</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4523,10 +4388,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="F111" t="s">
-        <v>222</v>
+        <v>68</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4552,10 +4417,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="F112" t="s">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4581,10 +4446,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="F113" t="s">
-        <v>226</v>
+        <v>98</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4610,10 +4475,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="F114" t="s">
-        <v>228</v>
+        <v>34</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4639,10 +4504,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="F115" t="s">
-        <v>230</v>
+        <v>94</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4668,10 +4533,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="F116" t="s">
-        <v>232</v>
+        <v>166</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4697,10 +4562,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="F117" t="s">
-        <v>234</v>
+        <v>28</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4726,10 +4591,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="F118" t="s">
-        <v>236</v>
+        <v>88</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4755,10 +4620,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="F119" t="s">
-        <v>238</v>
+        <v>16</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -4784,10 +4649,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="F120" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4813,10 +4678,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="F121" t="s">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4842,10 +4707,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="F122" t="s">
-        <v>244</v>
+        <v>168</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4871,10 +4736,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="F123" t="s">
-        <v>246</v>
+        <v>114</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4900,10 +4765,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="F124" t="s">
-        <v>248</v>
+        <v>116</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4929,10 +4794,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="F125" t="s">
-        <v>250</v>
+        <v>118</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4958,10 +4823,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="F126" t="s">
-        <v>252</v>
+        <v>120</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4987,10 +4852,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="F127" t="s">
-        <v>254</v>
+        <v>122</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5045,10 +4910,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5074,10 +4939,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>130</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5132,10 +4997,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>217</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5161,10 +5026,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>138</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5190,10 +5055,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>140</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5219,10 +5084,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="F135" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5248,10 +5113,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>267</v>
+        <v>222</v>
       </c>
       <c r="F136" t="s">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -5277,10 +5142,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>269</v>
+        <v>224</v>
       </c>
       <c r="F137" t="s">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5306,10 +5171,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>271</v>
+        <v>226</v>
       </c>
       <c r="F138" t="s">
-        <v>272</v>
+        <v>227</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5335,10 +5200,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>273</v>
+        <v>228</v>
       </c>
       <c r="F139" t="s">
-        <v>274</v>
+        <v>229</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5370,7 +5235,7 @@
         <v>144</v>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140" t="s">
         <v>4</v>
@@ -5399,7 +5264,7 @@
         <v>144</v>
       </c>
       <c r="G141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141" t="s">
         <v>4</v>
@@ -5422,10 +5287,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>275</v>
+        <v>230</v>
       </c>
       <c r="F142" t="s">
-        <v>276</v>
+        <v>231</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5451,10 +5316,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>277</v>
+        <v>232</v>
       </c>
       <c r="F143" t="s">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5480,10 +5345,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>279</v>
+        <v>234</v>
       </c>
       <c r="F144" t="s">
-        <v>280</v>
+        <v>235</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5509,10 +5374,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>281</v>
+        <v>236</v>
       </c>
       <c r="F145" t="s">
-        <v>282</v>
+        <v>237</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5538,10 +5403,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>283</v>
+        <v>238</v>
       </c>
       <c r="F146" t="s">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5567,10 +5432,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="F147" t="s">
-        <v>286</v>
+        <v>241</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5596,10 +5461,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
       <c r="F148" t="s">
-        <v>288</v>
+        <v>243</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5625,10 +5490,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="F149" t="s">
-        <v>290</v>
+        <v>245</v>
       </c>
       <c r="G149" t="n">
         <v>4</v>
@@ -5654,10 +5519,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>291</v>
+        <v>246</v>
       </c>
       <c r="F150" t="s">
-        <v>292</v>
+        <v>247</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5683,10 +5548,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="F151" t="s">
-        <v>294</v>
+        <v>249</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5712,10 +5577,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>295</v>
+        <v>250</v>
       </c>
       <c r="F152" t="s">
-        <v>296</v>
+        <v>251</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5741,10 +5606,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>297</v>
+        <v>252</v>
       </c>
       <c r="F153" t="s">
-        <v>298</v>
+        <v>253</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5770,10 +5635,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="F154" t="s">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5799,10 +5664,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>301</v>
+        <v>256</v>
       </c>
       <c r="F155" t="s">
-        <v>302</v>
+        <v>257</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -5828,10 +5693,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>303</v>
+        <v>258</v>
       </c>
       <c r="F156" t="s">
-        <v>304</v>
+        <v>259</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5857,10 +5722,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>260</v>
       </c>
       <c r="F157" t="s">
-        <v>306</v>
+        <v>261</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5886,10 +5751,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>307</v>
+        <v>262</v>
       </c>
       <c r="F158" t="s">
-        <v>308</v>
+        <v>263</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5915,10 +5780,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>309</v>
+        <v>264</v>
       </c>
       <c r="F159" t="s">
-        <v>310</v>
+        <v>265</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -5944,10 +5809,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="F160" t="s">
-        <v>312</v>
+        <v>267</v>
       </c>
       <c r="G160" t="n">
         <v>3</v>
@@ -5973,10 +5838,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>313</v>
+        <v>268</v>
       </c>
       <c r="F161" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="G161" t="n">
         <v>3</v>
@@ -6002,10 +5867,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="F162" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
